--- a/projects/opioids-eastern-iowa/data/03_pregnant_women_asac.xlsx
+++ b/projects/opioids-eastern-iowa/data/03_pregnant_women_asac.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Primary</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Ecstasy</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -79,13 +76,19 @@
   </si>
   <si>
     <t>Other Stimulants</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +100,22 @@
       <sz val="13"/>
       <color rgb="FFFF2500"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,14 +135,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,110 +492,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B4" s="1">
         <v>52</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
         <v>33</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="1" t="s">
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f>SUM(B5:D5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>SUM(B6:D6)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D7" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1">
-        <v>81</v>
-      </c>
-      <c r="D6" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>119</v>
-      </c>
-      <c r="C7" s="1">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16">
+      <c r="E7">
+        <f>SUM(B7:D7)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -569,81 +644,105 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16">
+      <c r="E8">
+        <f>SUM(B8:D8)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>SUM(B9:D9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>SUM(B10:D10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B11:D11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>SUM(B12:D12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>SUM(B13:D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -651,10 +750,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>SUM(B14:D14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,13 +765,17 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>SUM(B15:D15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -676,13 +783,17 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B16:D16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -695,23 +806,17 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="E17">
+        <f>SUM(B17:D17)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E18">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
